--- a/Clouds - Lab 2/Lab2.xlsx
+++ b/Clouds - Lab 2/Lab2.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="138">
   <si>
     <t>IT Tower</t>
   </si>
@@ -329,17 +329,146 @@
     <t>Networking</t>
   </si>
   <si>
-    <t>Management Tools</t>
-  </si>
-  <si>
     <t>Internet of Things</t>
+  </si>
+  <si>
+    <t>Azure Database for MySQL</t>
+  </si>
+  <si>
+    <t>Database usage</t>
+  </si>
+  <si>
+    <t>Azure Database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Self Hosted Integration Runtime </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Integration Runtime </t>
+  </si>
+  <si>
+    <t>SSIS package execution</t>
+  </si>
+  <si>
+    <t>SSIS Standard_D4_v2</t>
+  </si>
+  <si>
+    <t>Data Flow</t>
+  </si>
+  <si>
+    <t>Azure Integration Runtime</t>
+  </si>
+  <si>
+    <t>Data Analytic</t>
+  </si>
+  <si>
+    <t>Data Engineering</t>
+  </si>
+  <si>
+    <t>In-memory cache</t>
+  </si>
+  <si>
+    <t>Processing Level Optimization</t>
+  </si>
+  <si>
+    <t>Workflow Analysis</t>
+  </si>
+  <si>
+    <t>Node Cache</t>
+  </si>
+  <si>
+    <t>Standart (or Basic) Tier Node Cache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standart </t>
+  </si>
+  <si>
+    <t>Data Transfer</t>
+  </si>
+  <si>
+    <t>Data Delivery</t>
+  </si>
+  <si>
+    <t>Estimating Core Duration</t>
+  </si>
+  <si>
+    <t>Estimating Time Duration</t>
+  </si>
+  <si>
+    <t>Estimating Execution Amount</t>
+  </si>
+  <si>
+    <t>Estimating Memory Duration</t>
+  </si>
+  <si>
+    <t>Estimating vCPU Duration</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>Containers</t>
+  </si>
+  <si>
+    <t>Estimating Data Transfer</t>
+  </si>
+  <si>
+    <t>Azure Endpoint</t>
+  </si>
+  <si>
+    <t>Service Endpoint</t>
+  </si>
+  <si>
+    <t>DNS Queries</t>
+  </si>
+  <si>
+    <t>Real User Measurements</t>
+  </si>
+  <si>
+    <t>Traffic View</t>
+  </si>
+  <si>
+    <t>Endpoint Managment</t>
+  </si>
+  <si>
+    <t>DNS Managment</t>
+  </si>
+  <si>
+    <t>Performance Monitoring</t>
+  </si>
+  <si>
+    <t>Traffic Monitoring</t>
+  </si>
+  <si>
+    <t>Firewall</t>
+  </si>
+  <si>
+    <t>Pushing Notifications</t>
+  </si>
+  <si>
+    <t>Mobile Service</t>
+  </si>
+  <si>
+    <t>Executing A1 Node</t>
+  </si>
+  <si>
+    <t>Executing Node</t>
+  </si>
+  <si>
+    <t>Installing Gateway</t>
+  </si>
+  <si>
+    <t>Producing Frontend</t>
+  </si>
+  <si>
+    <t>Data Transfering</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,6 +502,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF161616"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -383,7 +519,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,11 +537,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -704,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,8 +851,8 @@
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="31.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1"/>
     <col min="6" max="6" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" customWidth="1"/>
     <col min="8" max="8" width="28.42578125" bestFit="1" customWidth="1"/>
@@ -765,6 +903,9 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" t="s">
         <v>74</v>
       </c>
       <c r="F2" t="s">
@@ -791,6 +932,9 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" t="s">
         <v>75</v>
       </c>
       <c r="F3" t="s">
@@ -816,6 +960,12 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
+      <c r="D4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" t="s">
+        <v>101</v>
+      </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
@@ -840,6 +990,9 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" t="s">
         <v>74</v>
       </c>
       <c r="F5" t="s">
@@ -866,6 +1019,9 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" t="s">
         <v>75</v>
       </c>
       <c r="F6" t="s">
@@ -881,7 +1037,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -890,6 +1046,12 @@
       </c>
       <c r="C7" t="s">
         <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -912,7 +1074,13 @@
         <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>96</v>
+      </c>
+      <c r="D8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" t="s">
+        <v>95</v>
       </c>
       <c r="F8" t="s">
         <v>19</v>
@@ -929,7 +1097,13 @@
         <v>77</v>
       </c>
       <c r="C9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" t="s">
         <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>95</v>
       </c>
       <c r="F9" t="s">
         <v>19</v>
@@ -948,6 +1122,12 @@
       <c r="C10" t="s">
         <v>22</v>
       </c>
+      <c r="D10" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
@@ -968,6 +1148,12 @@
       <c r="C11" t="s">
         <v>22</v>
       </c>
+      <c r="D11" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
@@ -988,6 +1174,12 @@
       <c r="C12" t="s">
         <v>81</v>
       </c>
+      <c r="D12" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="F12" t="s">
         <v>26</v>
       </c>
@@ -1008,6 +1200,12 @@
       <c r="C13" t="s">
         <v>81</v>
       </c>
+      <c r="D13" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="F13" t="s">
         <v>29</v>
       </c>
@@ -1028,6 +1226,12 @@
       <c r="C14" t="s">
         <v>81</v>
       </c>
+      <c r="D14" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="F14" t="s">
         <v>29</v>
       </c>
@@ -1048,6 +1252,12 @@
       <c r="C15" t="s">
         <v>82</v>
       </c>
+      <c r="D15" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="F15" t="s">
         <v>32</v>
       </c>
@@ -1071,6 +1281,12 @@
       <c r="C16" t="s">
         <v>82</v>
       </c>
+      <c r="D16" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="F16" t="s">
         <v>35</v>
       </c>
@@ -1085,15 +1301,21 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>93</v>
+      <c r="A17" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="D17" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="F17" t="s">
         <v>38</v>
       </c>
@@ -1108,15 +1330,21 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>93</v>
+      <c r="A18" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="D18" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="F18" t="s">
         <v>38</v>
       </c>
@@ -1131,15 +1359,21 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>93</v>
+      <c r="A19" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="D19" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="F19" t="s">
         <v>38</v>
       </c>
@@ -1154,15 +1388,21 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>93</v>
+      <c r="A20" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="D20" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="F20" t="s">
         <v>38</v>
       </c>
@@ -1174,14 +1414,20 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>93</v>
+      <c r="A21" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>83</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="F21" t="s">
         <v>38</v>
@@ -1203,6 +1449,12 @@
       <c r="C22" t="s">
         <v>84</v>
       </c>
+      <c r="D22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>136</v>
+      </c>
       <c r="F22" t="s">
         <v>45</v>
       </c>
@@ -1223,6 +1475,12 @@
       <c r="C23" t="s">
         <v>84</v>
       </c>
+      <c r="D23" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="F23" t="s">
         <v>48</v>
       </c>
@@ -1243,6 +1501,12 @@
       <c r="C24" t="s">
         <v>85</v>
       </c>
+      <c r="D24" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="F24" t="s">
         <v>48</v>
       </c>
@@ -1263,6 +1527,12 @@
       <c r="C25" t="s">
         <v>86</v>
       </c>
+      <c r="D25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="F25" t="s">
         <v>52</v>
       </c>
@@ -1283,6 +1553,12 @@
       <c r="C26" t="s">
         <v>86</v>
       </c>
+      <c r="D26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="F26" t="s">
         <v>52</v>
       </c>
@@ -1303,6 +1579,12 @@
       <c r="C27" t="s">
         <v>86</v>
       </c>
+      <c r="D27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="F27" t="s">
         <v>52</v>
       </c>
@@ -1323,6 +1605,12 @@
       <c r="C28" t="s">
         <v>87</v>
       </c>
+      <c r="D28" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="F28" t="s">
         <v>56</v>
       </c>
@@ -1343,6 +1631,12 @@
       <c r="C29" t="s">
         <v>87</v>
       </c>
+      <c r="D29" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="F29" t="s">
         <v>56</v>
       </c>
@@ -1363,6 +1657,12 @@
       <c r="C30" t="s">
         <v>87</v>
       </c>
+      <c r="D30" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F30" t="s">
         <v>56</v>
       </c>
@@ -1383,6 +1683,12 @@
       <c r="C31" t="s">
         <v>87</v>
       </c>
+      <c r="D31" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="F31" t="s">
         <v>56</v>
       </c>
@@ -1403,6 +1709,12 @@
       <c r="C32" t="s">
         <v>87</v>
       </c>
+      <c r="D32" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="F32" t="s">
         <v>56</v>
       </c>
@@ -1423,6 +1735,12 @@
       <c r="C33" t="s">
         <v>62</v>
       </c>
+      <c r="D33" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="F33" t="s">
         <v>62</v>
       </c>
@@ -1442,6 +1760,12 @@
       </c>
       <c r="C34" t="s">
         <v>62</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="F34" t="s">
         <v>62</v>
@@ -1458,10 +1782,16 @@
         <v>79</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s">
         <v>88</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="F35" t="s">
         <v>65</v>
@@ -1480,6 +1810,12 @@
       <c r="C36" t="s">
         <v>89</v>
       </c>
+      <c r="D36" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="F36" t="s">
         <v>67</v>
       </c>
@@ -1500,6 +1836,12 @@
       <c r="C37" t="s">
         <v>89</v>
       </c>
+      <c r="D37" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="F37" t="s">
         <v>70</v>
       </c>
@@ -1522,6 +1864,12 @@
       </c>
       <c r="C38" t="s">
         <v>89</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="F38" t="s">
         <v>70</v>
